--- a/Week9/ScottBreitbach_DSC630_Assignment9-3.xlsx
+++ b/Week9/ScottBreitbach_DSC630_Assignment9-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Documents\GitHub\DSC630\Week9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E680A969-ECAC-4891-9319-4E09B44147C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F1A7EF-E0F1-4FBC-A65D-7961363F1A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{996E35AF-6F11-4F44-9743-96D116A50F81}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t># models</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>probability</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Class:</t>
+  </si>
+  <si>
+    <t>Assignment:</t>
+  </si>
+  <si>
+    <t>Scott Breitbach</t>
+  </si>
+  <si>
+    <t>DSC630, Week 9</t>
   </si>
 </sst>
 </file>
@@ -78,8 +96,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -232,14 +250,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -256,7 +274,16 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,16 +306,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>437562</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447087</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9262</xdr:rowOff>
+      <xdr:rowOff>56887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -311,7 +338,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="2838450" y="47625"/>
           <a:ext cx="4704762" cy="2104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -621,17 +648,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB509DD-E52F-4907-A079-1C1CECBF5F27}">
-  <dimension ref="A12:Q31"/>
+  <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="20">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="19">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -719,19 +781,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <f>FACT(B15)/(FACT(A15)*(FACT(B15-A15)))</f>
+        <f t="shared" ref="C15:C20" si="0">FACT(B15)/(FACT(A15)*(FACT(B15-A15)))</f>
         <v>462</v>
       </c>
       <c r="D15" s="2">
-        <f>$D$13^A15</f>
+        <f t="shared" ref="D15:D20" si="1">$D$13^A15</f>
         <v>6.4000000000000038E-5</v>
       </c>
       <c r="E15" s="2">
-        <f>$E$13^(B15-A15)</f>
+        <f t="shared" ref="E15:E20" si="2">$E$13^(B15-A15)</f>
         <v>0.32768000000000019</v>
       </c>
       <c r="F15" s="2">
-        <f>C15*D15*E15</f>
+        <f t="shared" ref="F15:F20" si="3">C15*D15*E15</f>
         <v>9.6888422400000108E-3</v>
       </c>
       <c r="G15" s="4">
@@ -746,19 +808,19 @@
         <v>21</v>
       </c>
       <c r="L15" s="2">
-        <f>FACT(K15)/(FACT(J15)*(FACT(K15-J15)))</f>
+        <f t="shared" ref="L15:L20" si="4">FACT(K15)/(FACT(J15)*(FACT(K15-J15)))</f>
         <v>352716</v>
       </c>
       <c r="M15" s="2">
-        <f>$D$13^J15</f>
+        <f t="shared" ref="M15:M20" si="5">$D$13^J15</f>
         <v>2.0480000000000022E-8</v>
       </c>
       <c r="N15" s="2">
-        <f>$E$13^(K15-J15)</f>
+        <f t="shared" ref="N15:N20" si="6">$E$13^(K15-J15)</f>
         <v>0.10737418240000011</v>
       </c>
       <c r="O15" s="2">
-        <f>L15*M15*N15</f>
+        <f t="shared" ref="O15:O20" si="7">L15*M15*N15</f>
         <v>7.756306866052809E-4</v>
       </c>
       <c r="P15" s="4">
@@ -775,23 +837,23 @@
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <f>FACT(B16)/(FACT(A16)*(FACT(B16-A16)))</f>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
       <c r="D16" s="2">
-        <f>$D$13^A16</f>
+        <f t="shared" si="1"/>
         <v>1.280000000000001E-5</v>
       </c>
       <c r="E16" s="2">
-        <f>$E$13^(B16-A16)</f>
+        <f t="shared" si="2"/>
         <v>0.40960000000000019</v>
       </c>
       <c r="F16" s="2">
-        <f>C16*D16*E16</f>
+        <f t="shared" si="3"/>
         <v>1.730150400000002E-3</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" ref="G16:G20" si="0">F16</f>
+        <f t="shared" ref="G16:G20" si="8">F16</f>
         <v>1.730150400000002E-3</v>
       </c>
       <c r="H16" s="9"/>
@@ -802,23 +864,23 @@
         <v>21</v>
       </c>
       <c r="L16" s="2">
-        <f>FACT(K16)/(FACT(J16)*(FACT(K16-J16)))</f>
+        <f t="shared" si="4"/>
         <v>293930</v>
       </c>
       <c r="M16" s="2">
-        <f>$D$13^J16</f>
+        <f t="shared" si="5"/>
         <v>4.0960000000000057E-9</v>
       </c>
       <c r="N16" s="2">
-        <f>$E$13^(K16-J16)</f>
+        <f t="shared" si="6"/>
         <v>0.13421772800000012</v>
       </c>
       <c r="O16" s="2">
-        <f>L16*M16*N16</f>
+        <f t="shared" si="7"/>
         <v>1.6158972637610021E-4</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16:P25" si="1">O16</f>
+        <f t="shared" ref="P16:P25" si="9">O16</f>
         <v>1.6158972637610021E-4</v>
       </c>
       <c r="Q16" s="9"/>
@@ -831,23 +893,23 @@
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <f>FACT(B17)/(FACT(A17)*(FACT(B17-A17)))</f>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
       <c r="D17" s="2">
-        <f>$D$13^A17</f>
+        <f t="shared" si="1"/>
         <v>2.5600000000000022E-6</v>
       </c>
       <c r="E17" s="2">
-        <f>$E$13^(B17-A17)</f>
+        <f t="shared" si="2"/>
         <v>0.51200000000000012</v>
       </c>
       <c r="F17" s="2">
-        <f>C17*D17*E17</f>
+        <f t="shared" si="3"/>
         <v>2.1626880000000023E-4</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>2.1626880000000023E-4</v>
       </c>
       <c r="H17" s="9"/>
@@ -858,23 +920,23 @@
         <v>21</v>
       </c>
       <c r="L17" s="2">
-        <f>FACT(K17)/(FACT(J17)*(FACT(K17-J17)))</f>
+        <f t="shared" si="4"/>
         <v>203490</v>
       </c>
       <c r="M17" s="2">
-        <f>$D$13^J17</f>
+        <f t="shared" si="5"/>
         <v>8.1920000000000116E-10</v>
       </c>
       <c r="N17" s="2">
-        <f>$E$13^(K17-J17)</f>
+        <f t="shared" si="6"/>
         <v>0.16777216000000014</v>
       </c>
       <c r="O17" s="2">
-        <f>L17*M17*N17</f>
+        <f t="shared" si="7"/>
         <v>2.7967452642017345E-5</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.7967452642017345E-5</v>
       </c>
       <c r="Q17" s="9"/>
@@ -887,23 +949,23 @@
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <f>FACT(B18)/(FACT(A18)*(FACT(B18-A18)))</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D18" s="2">
-        <f>$D$13^A18</f>
+        <f t="shared" si="1"/>
         <v>5.1200000000000046E-7</v>
       </c>
       <c r="E18" s="2">
-        <f>$E$13^(B18-A18)</f>
+        <f t="shared" si="2"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="F18" s="2">
-        <f>C18*D18*E18</f>
+        <f t="shared" si="3"/>
         <v>1.8022400000000019E-5</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1.8022400000000019E-5</v>
       </c>
       <c r="H18" s="9"/>
@@ -914,23 +976,23 @@
         <v>21</v>
       </c>
       <c r="L18" s="2">
-        <f>FACT(K18)/(FACT(J18)*(FACT(K18-J18)))</f>
+        <f t="shared" si="4"/>
         <v>116280</v>
       </c>
       <c r="M18" s="2">
-        <f>$D$13^J18</f>
+        <f t="shared" si="5"/>
         <v>1.6384000000000023E-10</v>
       </c>
       <c r="N18" s="2">
-        <f>$E$13^(K18-J18)</f>
+        <f t="shared" si="6"/>
         <v>0.20971520000000016</v>
       </c>
       <c r="O18" s="2">
-        <f>L18*M18*N18</f>
+        <f t="shared" si="7"/>
         <v>3.9953503774310489E-6</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.9953503774310489E-6</v>
       </c>
       <c r="Q18" s="9"/>
@@ -943,23 +1005,23 @@
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <f>FACT(B19)/(FACT(A19)*(FACT(B19-A19)))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <f>$D$13^A19</f>
+        <f t="shared" si="1"/>
         <v>1.0240000000000011E-7</v>
       </c>
       <c r="E19" s="2">
-        <f>$E$13^(B19-A19)</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="F19" s="2">
-        <f>C19*D19*E19</f>
+        <f t="shared" si="3"/>
         <v>9.0112000000000102E-7</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9.0112000000000102E-7</v>
       </c>
       <c r="H19" s="9"/>
@@ -970,23 +1032,23 @@
         <v>21</v>
       </c>
       <c r="L19" s="2">
-        <f>FACT(K19)/(FACT(J19)*(FACT(K19-J19)))</f>
+        <f t="shared" si="4"/>
         <v>54264</v>
       </c>
       <c r="M19" s="2">
-        <f>$D$13^J19</f>
+        <f t="shared" si="5"/>
         <v>3.2768000000000054E-11</v>
       </c>
       <c r="N19" s="2">
-        <f>$E$13^(K19-J19)</f>
+        <f t="shared" si="6"/>
         <v>0.26214400000000015</v>
       </c>
       <c r="O19" s="2">
-        <f>L19*M19*N19</f>
+        <f t="shared" si="7"/>
         <v>4.6612421070028901E-7</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4.6612421070028901E-7</v>
       </c>
       <c r="Q19" s="9"/>
@@ -999,23 +1061,23 @@
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <f>FACT(B20)/(FACT(A20)*(FACT(B20-A20)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <f>$D$13^A20</f>
+        <f t="shared" si="1"/>
         <v>2.0480000000000022E-8</v>
       </c>
       <c r="E20" s="2">
-        <f>$E$13^(B20-A20)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <f>C20*D20*E20</f>
+        <f t="shared" si="3"/>
         <v>2.0480000000000022E-8</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>2.0480000000000022E-8</v>
       </c>
       <c r="H20" s="9"/>
@@ -1026,23 +1088,23 @@
         <v>21</v>
       </c>
       <c r="L20" s="2">
-        <f>FACT(K20)/(FACT(J20)*(FACT(K20-J20)))</f>
+        <f t="shared" si="4"/>
         <v>20349</v>
       </c>
       <c r="M20" s="2">
-        <f>$D$13^J20</f>
+        <f t="shared" si="5"/>
         <v>6.5536000000000112E-12</v>
       </c>
       <c r="N20" s="2">
-        <f>$E$13^(K20-J20)</f>
+        <f t="shared" si="6"/>
         <v>0.32768000000000019</v>
       </c>
       <c r="O20" s="2">
-        <f>L20*M20*N20</f>
+        <f t="shared" si="7"/>
         <v>4.3699144753152096E-8</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4.3699144753152096E-8</v>
       </c>
       <c r="Q20" s="9"/>
@@ -1070,23 +1132,23 @@
         <v>21</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ref="L21:L25" si="2">FACT(K21)/(FACT(J21)*(FACT(K21-J21)))</f>
+        <f t="shared" ref="L21:L25" si="10">FACT(K21)/(FACT(J21)*(FACT(K21-J21)))</f>
         <v>5985</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M21:M25" si="3">$D$13^J21</f>
+        <f t="shared" ref="M21:M25" si="11">$D$13^J21</f>
         <v>1.3107200000000023E-12</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" ref="N21:N25" si="4">$E$13^(K21-J21)</f>
+        <f t="shared" ref="N21:N25" si="12">$E$13^(K21-J21)</f>
         <v>0.40960000000000019</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" ref="O21:O25" si="5">L21*M21*N21</f>
+        <f t="shared" ref="O21:O25" si="13">L21*M21*N21</f>
         <v>3.2131724083200071E-9</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.2131724083200071E-9</v>
       </c>
       <c r="Q21" s="9"/>
@@ -1099,23 +1161,23 @@
         <v>21</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1330</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2.6214400000000047E-13</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.51200000000000012</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.7850957824000037E-10</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.7850957824000037E-10</v>
       </c>
       <c r="Q22" s="9"/>
@@ -1143,23 +1205,23 @@
         <v>21</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.24288000000001E-14</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>7.0464307200000142E-12</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.0464307200000142E-12</v>
       </c>
       <c r="Q23" s="9"/>
@@ -1194,23 +1256,23 @@
         <v>21</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.0485760000000023E-14</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.8</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.761607680000004E-13</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.761607680000004E-13</v>
       </c>
       <c r="Q24" s="9"/>
@@ -1223,19 +1285,19 @@
         <v>11</v>
       </c>
       <c r="C25" s="2">
-        <f>FACT(B25)/(FACT(A25)*(FACT(B25-A25)))</f>
+        <f t="shared" ref="C25:C30" si="14">FACT(B25)/(FACT(A25)*(FACT(B25-A25)))</f>
         <v>462</v>
       </c>
       <c r="D25" s="2">
-        <f>$D$23^A25</f>
+        <f t="shared" ref="D25:D30" si="15">$D$23^A25</f>
         <v>1.3841287200999997E-2</v>
       </c>
       <c r="E25" s="2">
-        <f>$E$23^(B25-A25)</f>
+        <f t="shared" ref="E25:E30" si="16">$E$23^(B25-A25)</f>
         <v>3.4502525100000001E-2</v>
       </c>
       <c r="F25" s="2">
-        <f>C25*D25*E25</f>
+        <f t="shared" ref="F25:F30" si="17">C25*D25*E25</f>
         <v>0.22063242388979076</v>
       </c>
       <c r="G25" s="3">
@@ -1250,23 +1312,23 @@
         <v>21</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2.0971520000000049E-15</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2.0971520000000049E-15</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.0971520000000049E-15</v>
       </c>
       <c r="Q25" s="9"/>
@@ -1279,23 +1341,23 @@
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <f>FACT(B26)/(FACT(A26)*(FACT(B26-A26)))</f>
+        <f t="shared" si="14"/>
         <v>330</v>
       </c>
       <c r="D26" s="2">
-        <f>$D$23^A26</f>
+        <f t="shared" si="15"/>
         <v>6.7822307284899986E-3</v>
       </c>
       <c r="E26" s="2">
-        <f>$E$23^(B26-A26)</f>
+        <f t="shared" si="16"/>
         <v>6.7652009999999999E-2</v>
       </c>
       <c r="F26" s="2">
-        <f>C26*D26*E26</f>
+        <f t="shared" si="17"/>
         <v>0.15141440855181718</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" ref="G26:G30" si="6">F26</f>
+        <f t="shared" ref="G26:G30" si="18">F26</f>
         <v>0.15141440855181718</v>
       </c>
       <c r="H26" s="9"/>
@@ -1323,23 +1385,23 @@
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <f>FACT(B27)/(FACT(A27)*(FACT(B27-A27)))</f>
+        <f t="shared" si="14"/>
         <v>165</v>
       </c>
       <c r="D27" s="2">
-        <f>$D$23^A27</f>
+        <f t="shared" si="15"/>
         <v>3.3232930569600991E-3</v>
       </c>
       <c r="E27" s="2">
-        <f>$E$23^(B27-A27)</f>
+        <f t="shared" si="16"/>
         <v>0.13265099999999999</v>
       </c>
       <c r="F27" s="2">
-        <f>C27*D27*E27</f>
+        <f t="shared" si="17"/>
         <v>7.2738294304304313E-2</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.2738294304304313E-2</v>
       </c>
       <c r="H27" s="9"/>
@@ -1352,23 +1414,23 @@
         <v>11</v>
       </c>
       <c r="C28" s="2">
-        <f>FACT(B28)/(FACT(A28)*(FACT(B28-A28)))</f>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
       <c r="D28" s="2">
-        <f>$D$23^A28</f>
+        <f t="shared" si="15"/>
         <v>1.6284135979104486E-3</v>
       </c>
       <c r="E28" s="2">
-        <f>$E$23^(B28-A28)</f>
+        <f t="shared" si="16"/>
         <v>0.2601</v>
       </c>
       <c r="F28" s="2">
-        <f>C28*D28*E28</f>
+        <f t="shared" si="17"/>
         <v>2.3295270724907925E-2</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.3295270724907925E-2</v>
       </c>
       <c r="H28" s="9"/>
@@ -1381,23 +1443,23 @@
         <v>11</v>
       </c>
       <c r="C29" s="2">
-        <f>FACT(B29)/(FACT(A29)*(FACT(B29-A29)))</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="D29" s="2">
-        <f>$D$23^A29</f>
+        <f t="shared" si="15"/>
         <v>7.979226629761197E-4</v>
       </c>
       <c r="E29" s="2">
-        <f>$E$23^(B29-A29)</f>
+        <f t="shared" si="16"/>
         <v>0.51</v>
       </c>
       <c r="F29" s="2">
-        <f>C29*D29*E29</f>
+        <f t="shared" si="17"/>
         <v>4.4763461392960313E-3</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.4763461392960313E-3</v>
       </c>
       <c r="H29" s="9"/>
@@ -1410,23 +1472,23 @@
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <f>FACT(B30)/(FACT(A30)*(FACT(B30-A30)))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="D30" s="2">
-        <f>$D$23^A30</f>
+        <f t="shared" si="15"/>
         <v>3.9098210485829864E-4</v>
       </c>
       <c r="E30" s="2">
-        <f>$E$23^(B30-A30)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <f>C30*D30*E30</f>
+        <f t="shared" si="17"/>
         <v>3.9098210485829864E-4</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.9098210485829864E-4</v>
       </c>
       <c r="H30" s="9"/>
